--- a/src/train/output.xlsx
+++ b/src/train/output.xlsx
@@ -480,33 +480,91 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>MCN-THL</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>TRL-KPD</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>13:35:00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>14:35:00</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>60</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>23:30:00</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>MDVE-SHU</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>TRL-KPD</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>UP</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>180</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>22:30:00</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>01:30:00</t>
         </is>
       </c>
-      <c r="J2" t="n">
+      <c r="J3" t="n">
         <v>180</v>
       </c>
     </row>
